--- a/biology/Microbiologie/Bicosoecaceae/Bicosoecaceae.xlsx
+++ b/biology/Microbiologie/Bicosoecaceae/Bicosoecaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Bicosoecaceae sont une famille de chromistes de l'embranchement des Bigyra, de la classe des Bikosea et de l’ordre des Bicoecida.
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom de la famille vient du genre type Bicosoeca dérivé des racines grecques βικοσ / bikos, « amphore, vase, bol », et  -oekein, habitat, littéralement « habitat en forme de vase ». 
 </t>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre type Bicosoeca se présente sous la forme de cellules incolores, sphériques à ellipsoïdales, unicellulaires ou réunies en colonies. 
 Les cellules portent deux flagelles émoussés inégaux, insérés antéro-latéralement à côté d'une structure péristomiale qui ressemble à une lèvre saillante entourant la zone cytostomale. Le flagelle le plus court, lisse, est dirigé vers l'arrière, avec une extrémité attachée à un lorica (loge). 
@@ -551,7 +567,7 @@
 Les Lorica sont organiques, amorphes ou fibreuses ; de forme, de taille et d'épaisseur variables, fournissant la plupart des caractères taxonomiques du genre. Certaines loriques sont constituées d'une matrice fine, transparente, tissée de façon aléatoire. 
 D'autres sont plus épaisses, tissées de façon plus régulière et parfois ornées de rayures. La forme de la lorica est visible en microscopie optique, mais les détails de sa structure ne peuvent généralement être résolus que par microscopie électronique. 
 La reproduction se fait par division cellulaire ; une des cellules filles s'échappe et forme un nouveau lorica, en commençant par la base (ou le pédoncule). 
-Chez les espèces où les cellules filles ont tendance à rester collées à la lorica mère, des colonies peuvent se développer[1]. 
+Chez les espèces où les cellules filles ont tendance à rester collées à la lorica mère, des colonies peuvent se développer. 
 </t>
         </is>
       </c>
@@ -580,9 +596,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces du genre Bicosoeca vivent principalement dans les eaux douces ; quelques-unes sont connues dans les eaux saumâtres et marines ; certaines sont très communes et largement répandues, mais sont souvent négligées par les observateurs[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces du genre Bicosoeca vivent principalement dans les eaux douces ; quelques-unes sont connues dans les eaux saumâtres et marines ; certaines sont très communes et largement répandues, mais sont souvent négligées par les observateurs.
 </t>
         </is>
       </c>
@@ -611,9 +629,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon AlgaeBase                                           (8 septembre 2022)[1] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon AlgaeBase                                           (8 septembre 2022) :
 Bicosoeca H.J.Clark, 1866  genre type
 Cantina T.Panek, A.Yabuki, I.Cepicka, K.Takishita, Y.Inagaki &amp; B.S.Leander, 2015
 Codomonas Lackey, 1939
@@ -649,9 +669,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Bicosoecaceae Haeckel, 1894[1].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Bicosoecaceae Haeckel, 1894.
 </t>
         </is>
       </c>
